--- a/@DataTable/DataTable_6000_Weapon.xlsx
+++ b/@DataTable/DataTable_6000_Weapon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A1E90-D672-40BB-8955-4B7DF423A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D48565-D181-40BF-A86C-3B772EA9E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1185" windowWidth="23670" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="3810" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5002</v>
+        <v>6002</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
